--- a/parabolic/2025/08/18/parabolic.xlsx
+++ b/parabolic/2025/08/18/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +485,7 @@
         <v>207</v>
       </c>
       <c r="D2" t="n">
-        <v>128500</v>
+        <v>266300</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D3" t="n">
-        <v>291800</v>
+        <v>543300</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D4" t="n">
-        <v>646400</v>
+        <v>1040300</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>640</v>
+        <v>666</v>
       </c>
       <c r="D5" t="n">
-        <v>1003800</v>
+        <v>2451400</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D6" t="n">
-        <v>131200</v>
+        <v>239900</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="D7" t="n">
-        <v>1336500</v>
+        <v>1960400</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>3840</t>
+          <t>3758</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>112</v>
+        <v>349</v>
       </c>
       <c r="D8" t="n">
-        <v>342800</v>
+        <v>195200</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>6573</t>
+          <t>3840</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="D9" t="n">
-        <v>1264700</v>
+        <v>568900</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>6615</t>
+          <t>6177</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>301</v>
+        <v>146</v>
       </c>
       <c r="D10" t="n">
-        <v>153500</v>
+        <v>27113100</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>7063</t>
+          <t>6573</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>335</v>
+        <v>138</v>
       </c>
       <c r="D11" t="n">
-        <v>310100</v>
+        <v>2149000</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>7746</t>
+          <t>6615</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>179</v>
+        <v>299</v>
       </c>
       <c r="D12" t="n">
-        <v>578500</v>
+        <v>193200</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>8897</t>
+          <t>7063</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>393</v>
+        <v>329</v>
       </c>
       <c r="D13" t="n">
-        <v>591900</v>
+        <v>451400</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>9166</t>
+          <t>7746</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,16 +758,62 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>954</v>
+        <v>182</v>
       </c>
       <c r="D14" t="n">
-        <v>980500</v>
+        <v>683600</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>8897</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>391</v>
+      </c>
+      <c r="D15" t="n">
+        <v>663100</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>9166</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>950</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1252100</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/08/18/parabolic.xlsx
+++ b/parabolic/2025/08/18/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>165A</t>
+          <t>1431</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>207</v>
+        <v>772</v>
       </c>
       <c r="D2" t="n">
-        <v>266300</v>
+        <v>1081500</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2497</t>
+          <t>165A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>585</v>
+        <v>206</v>
       </c>
       <c r="D3" t="n">
-        <v>543300</v>
+        <v>315000</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2776</t>
+          <t>2497</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>155</v>
+        <v>594</v>
       </c>
       <c r="D4" t="n">
-        <v>1040300</v>
+        <v>782200</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>3541</t>
+          <t>2776</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>666</v>
+        <v>154</v>
       </c>
       <c r="D5" t="n">
-        <v>2451400</v>
+        <v>1242500</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>3668</t>
+          <t>3137</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D6" t="n">
-        <v>239900</v>
+        <v>441200</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>3747</t>
+          <t>3541</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>492</v>
+        <v>670</v>
       </c>
       <c r="D7" t="n">
-        <v>1960400</v>
+        <v>2631600</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>3758</t>
+          <t>3668</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>349</v>
+        <v>538</v>
       </c>
       <c r="D8" t="n">
-        <v>195200</v>
+        <v>345800</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>3840</t>
+          <t>3747</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>112</v>
+        <v>475</v>
       </c>
       <c r="D9" t="n">
-        <v>568900</v>
+        <v>2484700</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>6177</t>
+          <t>3758</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>146</v>
+        <v>356</v>
       </c>
       <c r="D10" t="n">
-        <v>27113100</v>
+        <v>323300</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>6573</t>
+          <t>3840</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="D11" t="n">
-        <v>2149000</v>
+        <v>672300</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>6615</t>
+          <t>4170</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>299</v>
+        <v>223</v>
       </c>
       <c r="D12" t="n">
-        <v>193200</v>
+        <v>461400</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>7063</t>
+          <t>6177</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>329</v>
+        <v>152</v>
       </c>
       <c r="D13" t="n">
-        <v>451400</v>
+        <v>31287400</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>7746</t>
+          <t>6572</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>182</v>
+        <v>400</v>
       </c>
       <c r="D14" t="n">
-        <v>683600</v>
+        <v>188500</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>8897</t>
+          <t>6573</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>391</v>
+        <v>152</v>
       </c>
       <c r="D15" t="n">
-        <v>663100</v>
+        <v>6558900</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -795,7 +795,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>9166</t>
+          <t>6615</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -804,16 +804,154 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>950</v>
+        <v>301</v>
       </c>
       <c r="D16" t="n">
-        <v>1252100</v>
+        <v>226600</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>7063</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>332</v>
+      </c>
+      <c r="D17" t="n">
+        <v>559000</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>7746</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>179</v>
+      </c>
+      <c r="D18" t="n">
+        <v>798400</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>7844</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>548</v>
+      </c>
+      <c r="D19" t="n">
+        <v>116900</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>8410</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>285.8999938964844</v>
+      </c>
+      <c r="D20" t="n">
+        <v>30202400</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>8897</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>392</v>
+      </c>
+      <c r="D21" t="n">
+        <v>769200</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>9166</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>961</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1636900</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/08/18/parabolic.xlsx
+++ b/parabolic/2025/08/18/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="D2" t="n">
-        <v>1081500</v>
+        <v>1268100</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -508,7 +508,7 @@
         <v>206</v>
       </c>
       <c r="D3" t="n">
-        <v>315000</v>
+        <v>401800</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="D4" t="n">
-        <v>782200</v>
+        <v>965600</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D5" t="n">
-        <v>1242500</v>
+        <v>1618400</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="D6" t="n">
-        <v>441200</v>
+        <v>576800</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D7" t="n">
-        <v>2631600</v>
+        <v>2753100</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>3668</t>
+          <t>3553</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>538</v>
+        <v>835</v>
       </c>
       <c r="D8" t="n">
-        <v>345800</v>
+        <v>115100</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>3747</t>
+          <t>3668</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>475</v>
+        <v>536</v>
       </c>
       <c r="D9" t="n">
-        <v>2484700</v>
+        <v>497400</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>3758</t>
+          <t>3747</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>356</v>
+        <v>467</v>
       </c>
       <c r="D10" t="n">
-        <v>323300</v>
+        <v>2733100</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>3840</t>
+          <t>3758</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>113</v>
+        <v>351</v>
       </c>
       <c r="D11" t="n">
-        <v>672300</v>
+        <v>409700</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>4170</t>
+          <t>3840</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>223</v>
+        <v>112</v>
       </c>
       <c r="D12" t="n">
-        <v>461400</v>
+        <v>764000</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>6177</t>
+          <t>3926</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>152</v>
+        <v>486</v>
       </c>
       <c r="D13" t="n">
-        <v>31287400</v>
+        <v>187500</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>6572</t>
+          <t>4170</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>400</v>
+        <v>221</v>
       </c>
       <c r="D14" t="n">
-        <v>188500</v>
+        <v>523800</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>6573</t>
+          <t>4548</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>152</v>
+        <v>651</v>
       </c>
       <c r="D15" t="n">
-        <v>6558900</v>
+        <v>116100</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -795,7 +795,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>6615</t>
+          <t>6177</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>301</v>
+        <v>152</v>
       </c>
       <c r="D16" t="n">
-        <v>226600</v>
+        <v>31416400</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -818,7 +818,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>7063</t>
+          <t>6572</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>332</v>
+        <v>395</v>
       </c>
       <c r="D17" t="n">
-        <v>559000</v>
+        <v>246400</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -841,7 +841,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>7746</t>
+          <t>6573</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="D18" t="n">
-        <v>798400</v>
+        <v>9534000</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -864,7 +864,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>7844</t>
+          <t>6615</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>548</v>
+        <v>300</v>
       </c>
       <c r="D19" t="n">
-        <v>116900</v>
+        <v>249500</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -887,7 +887,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>8410</t>
+          <t>7063</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -896,10 +896,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>285.8999938964844</v>
+        <v>337</v>
       </c>
       <c r="D20" t="n">
-        <v>30202400</v>
+        <v>928200</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -910,7 +910,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>8897</t>
+          <t>7746</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>392</v>
+        <v>181</v>
       </c>
       <c r="D21" t="n">
-        <v>769200</v>
+        <v>920300</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -933,7 +933,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>9166</t>
+          <t>7844</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -942,16 +942,85 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>961</v>
+        <v>547</v>
       </c>
       <c r="D22" t="n">
-        <v>1636900</v>
+        <v>184900</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>8410</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>286.6000061035156</v>
+      </c>
+      <c r="D23" t="n">
+        <v>38397200</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>8897</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>393</v>
+      </c>
+      <c r="D24" t="n">
+        <v>939200</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>9166</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>956</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1992900</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
